--- a/schedule設計書.xlsx
+++ b/schedule設計書.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haya-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\schedule\design\shedule_design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1FFFDDAC-91A1-4C33-8F3A-293563D95FF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9460C5A-585B-4955-94FD-82FF72991D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{1F82EE54-D066-4B2B-B8C2-5D9170835FFD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{1F82EE54-D066-4B2B-B8C2-5D9170835FFD}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン" sheetId="1" r:id="rId1"/>
+    <sheet name="スケジュール登録" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -991,6 +992,2083 @@
             </a:rPr>
             <a:t>ログイン</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3499921-F763-4B2F-8550-EA2B9B977745}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="685800"/>
+          <a:ext cx="5238750" cy="3683000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFF02AA3-AD81-4A16-9CA0-8EAE656BA8F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="685800"/>
+          <a:ext cx="5238750" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スケジュールアプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="テキスト ボックス 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBE6FDFE-D9D3-4ED2-867A-5FC0A55A4EA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="1447800"/>
+          <a:ext cx="1993900" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" b="1"/>
+            <a:t>スケジュール登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{188D1784-FA5A-4FFB-909E-28BDA61E55DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2368550" y="1873250"/>
+          <a:ext cx="1485900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&lt;      2021</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月      </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>539750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="テキスト ボックス 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C4FC98E-CA68-4882-BEE9-F5009C994046}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2451100" y="2343150"/>
+          <a:ext cx="4032250" cy="1409700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>4 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>12</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>13</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>14</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>16</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>17</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>18</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>19</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>20</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>21</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>22</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>23</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>24</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>26</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>27</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>28</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>29</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>30</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t>31</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCFE395C-BED4-4AE8-96DA-142D096FF518}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1803400" y="5238750"/>
+          <a:ext cx="5238750" cy="4070350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C088D933-84D6-461E-837C-405622F357A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1797050" y="5238750"/>
+          <a:ext cx="5238750" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スケジュールアプリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>387350</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86160E60-A33C-44C0-B07E-219F7B33F60B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2368550" y="5924550"/>
+          <a:ext cx="1485900" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2021</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>月</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>01</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>日</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FCE16C-62FA-4C7C-A48E-9FBBD3EBE267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="6407150"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="テキスト ボックス 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3519F599-B116-44F7-B499-699C8EBB90B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3270250" y="6407150"/>
+          <a:ext cx="2343150" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="テキスト ボックス 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{441DF871-3A24-4FCD-8D5B-F1D82BE52F42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="6915150"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>詳細</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="テキスト ボックス 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B3138D-BE4A-4F6E-8500-CB6F657BFC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3270250" y="6915150"/>
+          <a:ext cx="2343150" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488950</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="テキスト ボックス 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A65241B-41D8-48CD-AB03-388E50F2767A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2349500" y="7442200"/>
+          <a:ext cx="781050" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時間</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="テキスト ボックス 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4693CC8A-CBA7-4A46-8567-F60DC1531582}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3270250" y="7442200"/>
+          <a:ext cx="603250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>615950</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="テキスト ボックス 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55015B6D-8E24-4E79-820E-B10D09340D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3917950" y="7454900"/>
+          <a:ext cx="330200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>時</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>222250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="テキスト ボックス 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7DEDB5E-D981-41B8-9925-6DE248377007}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4241800" y="7442200"/>
+          <a:ext cx="603250" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8771C2B1-7330-42D9-8313-EB9FF2A41BCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4889500" y="7454900"/>
+          <a:ext cx="330200" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>分</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C34849F-5815-4DCE-9EF9-41FCE06A0F55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3270250" y="8070850"/>
+          <a:ext cx="1263650" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>31750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="楕円 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26014F22-CB48-4E6D-8B59-EAE7C518665C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="3162300"/>
+          <a:ext cx="323850" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>501650</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="吹き出し: 角を丸めた四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{778280B6-7DC8-4CA2-B39A-59336FF86158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="4787900"/>
+          <a:ext cx="6686550" cy="4819650"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -19866"/>
+            <a:gd name="adj2" fmla="val -75406"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29C6C50E-478A-4025-B79D-5ED52E542815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="3359150"/>
+          <a:ext cx="603250" cy="317500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>押下後</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>222250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10CD8C33-6973-42FC-BF65-B402A144FD4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6292850" y="7962900"/>
+          <a:ext cx="9118600" cy="3994150"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -67998"/>
+            <a:gd name="adj2" fmla="val -42255"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>登録押下後の処理</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>バリデーションチェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　・全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>フォームの項目の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>チェック</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ならバリデーションエラーメッセージ表示し同画面にとどまる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>null</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>出なければ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の処理に進む</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2.backend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>にタイトル、詳細、時間、ログインユーザグループでリクエスト</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>3. backend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>で受け取ったパラメータを</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>DB</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>に登録する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　→例外発生時は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>番としてフロントに返却</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　　→正常終了時は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>番としてフロントに返却</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>4.backend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>から返却された値</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(status)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を取得する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>なら登録完了のメッセージ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(※1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>を画面に表示＋</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>group</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が同じユーザに対してメールの送信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(LINEAPI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>の利用の方が使い勝手がいいか</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>　→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>status</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>99</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ならエラーメッセージ表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>(※2)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18211D57-EABD-41AB-A9FF-851A88D58E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3429000" y="8509000"/>
+          <a:ext cx="1130300" cy="635000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※1 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録完了</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>※2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>登録失敗</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1298,8 +3376,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867ADC82-683C-4FD2-86B2-76470EA2D03D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1A5F58-B53F-4A0F-9DCB-E566D05C952A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44:V45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
